--- a/data_output/prism_passive/all_passive_torque at 0 deg.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 0 deg.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15.253450202774518</v>
+        <v>15.253450203077477</v>
       </c>
       <c r="C2">
-        <v>14.387202726053239</v>
+        <v>14.387202726146112</v>
       </c>
       <c r="D2">
-        <v>12.516275931154141</v>
+        <v>12.516275930363362</v>
       </c>
       <c r="E2">
-        <v>17.613540354157237</v>
+        <v>17.613540353155042</v>
       </c>
       <c r="F2">
-        <v>13.10412378457983</v>
+        <v>13.104123784364631</v>
       </c>
       <c r="G2">
-        <v>23.460728126236539</v>
+        <v>23.460728126338413</v>
       </c>
       <c r="H2">
-        <v>22.865054895884061</v>
+        <v>22.865054895868852</v>
       </c>
       <c r="I2">
-        <v>24.430055002349281</v>
+        <v>24.430055005028073</v>
       </c>
       <c r="J2">
-        <v>19.08255649945735</v>
+        <v>19.082556502172356</v>
       </c>
       <c r="K2">
-        <v>16.754095097123582</v>
+        <v>16.754095096944912</v>
       </c>
       <c r="L2">
-        <v>14.851142772298653</v>
+        <v>14.851142772121783</v>
       </c>
       <c r="M2">
-        <v>25.454250325930307</v>
+        <v>25.454250326038345</v>
       </c>
       <c r="N2">
-        <v>19.723838980842906</v>
+        <v>19.723838986700464</v>
       </c>
       <c r="O2">
-        <v>14.334912150323154</v>
+        <v>14.334912150243204</v>
       </c>
       <c r="P2">
-        <v>20.234417721352106</v>
+        <v>20.234417721283549</v>
       </c>
       <c r="Q2">
-        <v>18.305545410085738</v>
+        <v>18.305545410081422</v>
       </c>
       <c r="R2">
-        <v>31.099129864489786</v>
+        <v>31.099129869383585</v>
       </c>
       <c r="S2">
-        <v>31.829709784639473</v>
+        <v>31.829709784380729</v>
       </c>
       <c r="T2">
-        <v>33.287101661760758</v>
+        <v>33.287101661967256</v>
       </c>
       <c r="U2">
-        <v>14.56417728384505</v>
+        <v>14.564177283689931</v>
       </c>
       <c r="V2">
-        <v>28.955175694329391</v>
+        <v>28.955175694369309</v>
       </c>
       <c r="W2">
-        <v>16.727906388925614</v>
+        <v>16.727906389682012</v>
       </c>
       <c r="X2">
-        <v>12.353732990471514</v>
+        <v>12.353732990540442</v>
       </c>
       <c r="Y2">
-        <v>21.121930444233186</v>
+        <v>21.121930445490325</v>
       </c>
       <c r="Z2">
-        <v>11.050833051049008</v>
+        <v>11.050833051116602</v>
       </c>
       <c r="AA2">
-        <v>18.537467533502195</v>
+        <v>18.537467537879202</v>
       </c>
       <c r="AB2">
-        <v>11.874543023281335</v>
+        <v>11.874543023394441</v>
       </c>
       <c r="AC2">
-        <v>11.307213193807701</v>
+        <v>11.307213193725392</v>
       </c>
       <c r="AD2">
-        <v>11.204447500669701</v>
+        <v>11.204447500607818</v>
       </c>
       <c r="AE2">
-        <v>9.9290784137816797</v>
+        <v>9.9290784143675488</v>
       </c>
       <c r="AF2">
-        <v>23.130724313251349</v>
+        <v>23.13072431317643</v>
       </c>
       <c r="AG2">
-        <v>14.166882783198199</v>
+        <v>14.166882783559153</v>
       </c>
       <c r="AH2">
-        <v>23.582036374628355</v>
+        <v>23.582036374825517</v>
       </c>
       <c r="AI2">
-        <v>21.111809964248355</v>
+        <v>21.111809964108829</v>
       </c>
       <c r="AJ2">
-        <v>22.912989918626359</v>
+        <v>22.912989918898958</v>
       </c>
       <c r="AK2">
-        <v>13.348124434582246</v>
+        <v>13.348124434509126</v>
       </c>
       <c r="AL2">
-        <v>30.022549741936146</v>
+        <v>30.022549742204081</v>
       </c>
       <c r="AM2">
-        <v>27.210130810166479</v>
+        <v>27.210130810080642</v>
       </c>
       <c r="AN2">
-        <v>14.999174211211976</v>
+        <v>14.999174211172638</v>
       </c>
       <c r="AO2">
-        <v>22.61340026009394</v>
+        <v>22.613400260440518</v>
       </c>
       <c r="AP2">
-        <v>19.883209852679233</v>
+        <v>19.883209852484409</v>
       </c>
       <c r="AQ2">
-        <v>27.07776650033189</v>
+        <v>27.077766500345124</v>
       </c>
       <c r="AR2">
-        <v>24.397328783921722</v>
+        <v>24.397328783876535</v>
       </c>
       <c r="AS2">
-        <v>25.516535507392543</v>
+        <v>25.516535514481635</v>
       </c>
       <c r="AT2">
-        <v>12.364969506304719</v>
+        <v>12.364969506311256</v>
       </c>
       <c r="AU2">
-        <v>27.35884885613099</v>
+        <v>27.358848856202748</v>
       </c>
       <c r="AV2">
-        <v>13.725951338573211</v>
+        <v>13.725951338755152</v>
       </c>
       <c r="AW2">
-        <v>10.101399151859205</v>
+        <v>10.101399152137887</v>
       </c>
       <c r="AX2">
-        <v>16.423532404458044</v>
+        <v>16.423532404488558</v>
       </c>
       <c r="AY2">
-        <v>11.677139872978424</v>
+        <v>11.677139873178858</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.126358141958171</v>
+        <v>17.126358143433045</v>
       </c>
       <c r="C3">
-        <v>13.763747822200967</v>
+        <v>13.763747822372663</v>
       </c>
       <c r="D3">
-        <v>11.885489415498421</v>
+        <v>11.885489419150661</v>
       </c>
       <c r="E3">
-        <v>20.159383200901168</v>
+        <v>20.159383211188857</v>
       </c>
       <c r="F3">
-        <v>12.230949657536176</v>
+        <v>12.230949657776764</v>
       </c>
       <c r="G3">
-        <v>26.818179713127495</v>
+        <v>26.81817971464983</v>
       </c>
       <c r="H3">
-        <v>21.191670289107247</v>
+        <v>21.191670288752036</v>
       </c>
       <c r="I3">
-        <v>25.938841852286348</v>
+        <v>25.938841852033367</v>
       </c>
       <c r="J3">
-        <v>16.636731004591876</v>
+        <v>16.636731004638833</v>
       </c>
       <c r="K3">
-        <v>23.691738292450555</v>
+        <v>23.69173829345884</v>
       </c>
       <c r="L3">
-        <v>20.619087672229835</v>
+        <v>20.619087672691901</v>
       </c>
       <c r="M3">
-        <v>33.142897300351606</v>
+        <v>33.143679351330427</v>
       </c>
       <c r="N3">
-        <v>26.6801880031046</v>
+        <v>26.680188004050404</v>
       </c>
       <c r="O3">
-        <v>15.606421074507095</v>
+        <v>15.60642107459342</v>
       </c>
       <c r="P3">
-        <v>23.186868879806738</v>
+        <v>23.186868879410877</v>
       </c>
       <c r="Q3">
-        <v>21.526678193572241</v>
+        <v>21.526678193515185</v>
       </c>
       <c r="R3">
-        <v>19.791506146768793</v>
+        <v>19.791506146693703</v>
       </c>
       <c r="S3">
-        <v>27.967127419787879</v>
+        <v>27.967127419555851</v>
       </c>
       <c r="T3">
-        <v>30.88374164239227</v>
+        <v>30.883741643040388</v>
       </c>
       <c r="U3">
-        <v>17.883825700386069</v>
+        <v>17.883825700236923</v>
       </c>
       <c r="V3">
-        <v>27.578788061129334</v>
+        <v>27.578788060405103</v>
       </c>
       <c r="W3">
-        <v>15.525920339564845</v>
+        <v>15.525920340161997</v>
       </c>
       <c r="X3">
-        <v>13.784499421174893</v>
+        <v>13.784499421064083</v>
       </c>
       <c r="Y3">
-        <v>19.642650804736093</v>
+        <v>19.642650804599302</v>
       </c>
       <c r="Z3">
-        <v>13.695267797719916</v>
+        <v>13.695267797907336</v>
       </c>
       <c r="AA3">
-        <v>18.518867435059398</v>
+        <v>18.518867435126644</v>
       </c>
       <c r="AB3">
-        <v>12.487271747670137</v>
+        <v>12.48727174731382</v>
       </c>
       <c r="AC3">
-        <v>12.660631106287415</v>
+        <v>12.660631106572495</v>
       </c>
       <c r="AD3">
-        <v>15.567529029102291</v>
+        <v>15.56752902925229</v>
       </c>
       <c r="AE3">
-        <v>11.054688373536639</v>
+        <v>11.054688373397047</v>
       </c>
       <c r="AF3">
-        <v>17.715767351073882</v>
+        <v>17.715767351398345</v>
       </c>
       <c r="AG3">
-        <v>10.849891872334375</v>
+        <v>10.8498918725205</v>
       </c>
       <c r="AH3">
-        <v>27.54447272406728</v>
+        <v>27.544472726738519</v>
       </c>
       <c r="AI3">
-        <v>15.433834403865333</v>
+        <v>15.433834404198054</v>
       </c>
       <c r="AJ3">
-        <v>24.705463867768643</v>
+        <v>24.705463869193135</v>
       </c>
       <c r="AK3">
-        <v>15.602240686752806</v>
+        <v>15.60224068678013</v>
       </c>
       <c r="AL3">
-        <v>22.982292058176093</v>
+        <v>22.982292058168348</v>
       </c>
       <c r="AM3">
-        <v>30.342254379605901</v>
+        <v>30.342254379423643</v>
       </c>
       <c r="AN3">
-        <v>13.824740079607384</v>
+        <v>13.824740079781257</v>
       </c>
       <c r="AO3">
-        <v>23.138715813114896</v>
+        <v>23.138715813113357</v>
       </c>
       <c r="AP3">
-        <v>20.399773787656791</v>
+        <v>20.399773788217601</v>
       </c>
       <c r="AQ3">
-        <v>18.586186433697296</v>
+        <v>18.586186434093094</v>
       </c>
       <c r="AR3">
-        <v>25.674492925303291</v>
+        <v>25.67449292443861</v>
       </c>
       <c r="AS3">
-        <v>24.480678065870851</v>
+        <v>24.480678066202636</v>
       </c>
       <c r="AT3">
-        <v>12.300833002304602</v>
+        <v>12.300833002305437</v>
       </c>
       <c r="AU3">
-        <v>29.47022668351585</v>
+        <v>29.470226683635293</v>
       </c>
       <c r="AV3">
-        <v>14.632620493608128</v>
+        <v>14.632620493645391</v>
       </c>
       <c r="AW3">
-        <v>12.084795916840294</v>
+        <v>12.084795916478447</v>
       </c>
       <c r="AX3">
-        <v>20.602561939392828</v>
+        <v>20.60256193956895</v>
       </c>
       <c r="AY3">
-        <v>14.192391402179824</v>
+        <v>14.192391402084047</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_torque at 0 deg.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 0 deg.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>15.253450203077477</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>14.387202726146112</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>12.516275930363362</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>17.613540353155042</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>13.104123784364631</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>23.460728126338413</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>22.865054895868852</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>24.430055005028073</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>19.082556502172356</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.754095096944912</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>14.851142772121783</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>25.454250326038345</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>19.723838986700464</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14.334912150243204</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>20.234417721283549</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>18.305545410081422</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>31.099129869383585</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>31.829709784380729</v>
@@ -588,55 +477,55 @@
         <v>11.050833051116602</v>
       </c>
       <c r="AA2">
-        <v>18.537467537879202</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>11.874543023394441</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>11.307213193725392</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>11.204447500607818</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>9.9290784143675488</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>23.13072431317643</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>14.166882783559153</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>23.582036374825517</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>21.111809964108829</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>22.912989918898958</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>13.348124434509126</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>30.022549742204081</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>27.210130810080642</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>14.999174211172638</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>22.613400260440518</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>19.883209852484409</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>27.077766500345124</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>24.397328783876535</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>17.126358143433045</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.763747822372663</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>11.885489419150661</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>20.159383211188857</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>12.230949657776764</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>26.81817971464983</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>21.191670288752036</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>25.938841852033367</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.636731004638833</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>23.69173829345884</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>20.619087672691901</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>33.143679351330427</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>26.680188004050404</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.60642107459342</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>23.186868879410877</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>21.526678193515185</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>19.791506146693703</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>27.967127419555851</v>
@@ -743,55 +629,55 @@
         <v>13.695267797907336</v>
       </c>
       <c r="AA3">
-        <v>18.518867435126644</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>12.48727174731382</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>12.660631106572495</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>15.56752902925229</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>11.054688373397047</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>17.715767351398345</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>10.8498918725205</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>27.544472726738519</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>15.433834404198054</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>24.705463869193135</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>15.60224068678013</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>22.982292058168348</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>30.342254379423643</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>13.824740079781257</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>23.138715813113357</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>20.399773788217601</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>18.586186434093094</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>25.67449292443861</v>

--- a/data_output/prism_passive/all_passive_torque at 0 deg.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 0 deg.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15.251293639932827</v>
+        <v>14.336164359257241</v>
       </c>
       <c r="C2">
-        <v>14.386537876141778</v>
+        <v>31.099057571451681</v>
       </c>
       <c r="D2">
-        <v>12.517131952926432</v>
+        <v>14.999933945741793</v>
       </c>
       <c r="E2">
-        <v>17.613593433326173</v>
+        <v>27.0788659403709</v>
       </c>
       <c r="F2">
         <v>13.103171004706857</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.121011368517884</v>
+        <v>15.606197544409987</v>
       </c>
       <c r="C3">
-        <v>13.758647084042989</v>
+        <v>19.790493933408463</v>
       </c>
       <c r="D3">
-        <v>11.869054281506612</v>
+        <v>13.824821612113388</v>
       </c>
       <c r="E3">
-        <v>20.125635651240803</v>
+        <v>16.947694771919032</v>
       </c>
       <c r="F3">
         <v>12.231075408474524</v>

--- a/data_output/prism_passive/all_passive_torque at 0 deg.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 0 deg.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15.251293639932827</v>
+        <v>19.700776789929254</v>
       </c>
       <c r="C2">
-        <v>14.386537876141778</v>
+        <v>14.336164359257241</v>
       </c>
       <c r="D2">
-        <v>12.517131952926432</v>
+        <v>27.207993566727964</v>
       </c>
       <c r="E2">
-        <v>17.613593433326173</v>
+        <v>14.999933945741793</v>
       </c>
       <c r="F2">
         <v>13.103171004706857</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.121011368517884</v>
+        <v>26.675053599404535</v>
       </c>
       <c r="C3">
-        <v>13.758647084042989</v>
+        <v>15.606197544409987</v>
       </c>
       <c r="D3">
-        <v>11.869054281506612</v>
+        <v>30.344649674770377</v>
       </c>
       <c r="E3">
-        <v>20.125635651240803</v>
+        <v>13.824821612113388</v>
       </c>
       <c r="F3">
         <v>12.231075408474524</v>

--- a/data_output/prism_passive/all_passive_torque at 0 deg.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 0 deg.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>15.251293640235517</v>
+      </c>
+      <c r="C2">
+        <v>14.386537876232618</v>
+      </c>
+      <c r="D2">
+        <v>12.517131952118795</v>
+      </c>
+      <c r="E2">
+        <v>17.613593432259453</v>
+      </c>
+      <c r="F2">
+        <v>13.103171004475392</v>
+      </c>
+      <c r="G2">
+        <v>23.460051563654286</v>
+      </c>
+      <c r="H2">
+        <v>22.866243892985903</v>
+      </c>
+      <c r="I2">
+        <v>24.415396277573318</v>
+      </c>
+      <c r="J2">
+        <v>19.070561191261096</v>
+      </c>
+      <c r="K2">
+        <v>16.753584063854049</v>
+      </c>
+      <c r="L2">
+        <v>14.850864986616438</v>
+      </c>
+      <c r="M2">
+        <v>25.453988616657565</v>
+      </c>
+      <c r="N2">
         <v>19.700776789929254</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>14.336164359257241</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>20.234738496261599</v>
+      </c>
+      <c r="Q2">
+        <v>18.305918189567656</v>
+      </c>
+      <c r="R2">
+        <v>31.099057571451681</v>
+      </c>
+      <c r="S2">
+        <v>31.829790629786107</v>
+      </c>
+      <c r="T2">
+        <v>33.286957548683979</v>
+      </c>
+      <c r="U2">
+        <v>14.564716636075659</v>
+      </c>
+      <c r="V2">
+        <v>28.947230832579475</v>
+      </c>
+      <c r="W2">
+        <v>16.723080914674615</v>
+      </c>
+      <c r="X2">
+        <v>12.354227935536207</v>
+      </c>
+      <c r="Y2">
+        <v>21.122887488064944</v>
+      </c>
+      <c r="Z2">
+        <v>11.05082701044986</v>
+      </c>
+      <c r="AA2">
+        <v>18.526537132587155</v>
+      </c>
+      <c r="AB2">
+        <v>11.875879628716589</v>
+      </c>
+      <c r="AC2">
+        <v>11.307938814116904</v>
+      </c>
+      <c r="AD2">
+        <v>11.204207800168382</v>
+      </c>
+      <c r="AE2">
+        <v>9.9248728893910219</v>
+      </c>
+      <c r="AF2">
+        <v>23.131526108359704</v>
+      </c>
+      <c r="AG2">
+        <v>14.160145986158819</v>
+      </c>
+      <c r="AH2">
+        <v>23.584201244398752</v>
+      </c>
+      <c r="AI2">
+        <v>21.112444115285026</v>
+      </c>
+      <c r="AJ2">
+        <v>22.91437388965586</v>
+      </c>
+      <c r="AK2">
+        <v>13.346979377223706</v>
+      </c>
+      <c r="AL2">
+        <v>30.021480650188479</v>
+      </c>
+      <c r="AM2">
         <v>27.207993566727964</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>14.999933945741793</v>
       </c>
-      <c r="F2">
-        <v>13.103171004706857</v>
-      </c>
-      <c r="G2">
-        <v>23.460051563535171</v>
-      </c>
-      <c r="H2">
-        <v>22.86624389299115</v>
-      </c>
-      <c r="I2">
-        <v>24.415396274964746</v>
-      </c>
-      <c r="J2">
-        <v>19.070561188561701</v>
-      </c>
-      <c r="K2">
-        <v>16.753584064044389</v>
-      </c>
-      <c r="L2">
-        <v>14.850864986822195</v>
-      </c>
-      <c r="M2">
-        <v>25.453988616548227</v>
-      </c>
-      <c r="N2">
-        <v>19.700776784080031</v>
-      </c>
-      <c r="O2">
-        <v>14.336164359339904</v>
-      </c>
-      <c r="P2">
-        <v>20.234738496335876</v>
-      </c>
-      <c r="Q2">
-        <v>18.305918189577277</v>
-      </c>
-      <c r="R2">
-        <v>31.099057566574782</v>
-      </c>
-      <c r="S2">
-        <v>31.829790630040105</v>
-      </c>
-      <c r="T2">
-        <v>33.286957548499139</v>
-      </c>
-      <c r="U2">
-        <v>14.564716636223411</v>
-      </c>
-      <c r="V2">
-        <v>28.947230832603253</v>
-      </c>
-      <c r="W2">
-        <v>16.723080913938901</v>
-      </c>
-      <c r="X2">
-        <v>12.354227935454112</v>
-      </c>
-      <c r="Y2">
-        <v>21.122887486746432</v>
-      </c>
-      <c r="Z2">
-        <v>11.050827010390764</v>
-      </c>
-      <c r="AA2">
-        <v>18.526537128093455</v>
-      </c>
-      <c r="AB2">
-        <v>11.875879628574404</v>
-      </c>
-      <c r="AC2">
-        <v>11.307938814195374</v>
-      </c>
-      <c r="AD2">
-        <v>11.2042078002375</v>
-      </c>
-      <c r="AE2">
-        <v>9.9248728888412909</v>
-      </c>
-      <c r="AF2">
-        <v>23.131526108449915</v>
-      </c>
-      <c r="AG2">
-        <v>14.160145985838298</v>
-      </c>
-      <c r="AH2">
-        <v>23.584201244147668</v>
-      </c>
-      <c r="AI2">
-        <v>21.112444115457716</v>
-      </c>
-      <c r="AJ2">
-        <v>22.914373889360849</v>
-      </c>
-      <c r="AK2">
-        <v>13.346979377319782</v>
-      </c>
-      <c r="AL2">
-        <v>30.021480649905296</v>
-      </c>
-      <c r="AM2">
-        <v>27.207993566851325</v>
-      </c>
-      <c r="AN2">
-        <v>14.999933945783036</v>
-      </c>
       <c r="AO2">
-        <v>22.614943189586416</v>
+        <v>22.614943189959387</v>
       </c>
       <c r="AP2">
-        <v>19.155506753636974</v>
+        <v>19.155506753567426</v>
       </c>
       <c r="AQ2">
-        <v>27.078865940347928</v>
+        <v>27.0788659403709</v>
       </c>
       <c r="AR2">
-        <v>24.397022200896114</v>
+        <v>24.397022200835455</v>
       </c>
       <c r="AS2">
-        <v>25.479988478925019</v>
+        <v>25.479988485840469</v>
       </c>
       <c r="AT2">
-        <v>12.364786796110989</v>
+        <v>12.364786796110335</v>
       </c>
       <c r="AU2">
-        <v>27.360385907172653</v>
+        <v>27.360385907265769</v>
       </c>
       <c r="AV2">
-        <v>13.725486762812492</v>
+        <v>13.725486763013187</v>
       </c>
       <c r="AW2">
-        <v>10.10071562736235</v>
+        <v>10.100715627633972</v>
       </c>
       <c r="AX2">
-        <v>16.423487433090276</v>
+        <v>16.423487433124905</v>
       </c>
       <c r="AY2">
-        <v>11.674858160467471</v>
+        <v>11.674858160652045</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>17.121011369984611</v>
+      </c>
+      <c r="C3">
+        <v>13.758647084168501</v>
+      </c>
+      <c r="D3">
+        <v>11.869054285177858</v>
+      </c>
+      <c r="E3">
+        <v>20.12563566168259</v>
+      </c>
+      <c r="F3">
+        <v>12.231075408745873</v>
+      </c>
+      <c r="G3">
+        <v>26.815611007424835</v>
+      </c>
+      <c r="H3">
+        <v>21.192180945434355</v>
+      </c>
+      <c r="I3">
+        <v>25.9425763164503</v>
+      </c>
+      <c r="J3">
+        <v>16.637329893563802</v>
+      </c>
+      <c r="K3">
+        <v>23.693271912128392</v>
+      </c>
+      <c r="L3">
+        <v>20.620978043668401</v>
+      </c>
+      <c r="M3">
+        <v>33.14281896925538</v>
+      </c>
+      <c r="N3">
         <v>26.675053599404535</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>15.606197544409987</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>23.183680939724525</v>
+      </c>
+      <c r="Q3">
+        <v>21.52677502470441</v>
+      </c>
+      <c r="R3">
+        <v>19.790493933408463</v>
+      </c>
+      <c r="S3">
+        <v>27.965659331092294</v>
+      </c>
+      <c r="T3">
+        <v>30.884527990675114</v>
+      </c>
+      <c r="U3">
+        <v>17.88405880075425</v>
+      </c>
+      <c r="V3">
+        <v>27.579536296244779</v>
+      </c>
+      <c r="W3">
+        <v>15.372000986548011</v>
+      </c>
+      <c r="X3">
+        <v>13.781694090925578</v>
+      </c>
+      <c r="Y3">
+        <v>19.642674339403339</v>
+      </c>
+      <c r="Z3">
+        <v>13.695242375386625</v>
+      </c>
+      <c r="AA3">
+        <v>18.518877157641956</v>
+      </c>
+      <c r="AB3">
+        <v>12.487456482681141</v>
+      </c>
+      <c r="AC3">
+        <v>12.660478239896021</v>
+      </c>
+      <c r="AD3">
+        <v>15.565832382855788</v>
+      </c>
+      <c r="AE3">
+        <v>11.056227540685834</v>
+      </c>
+      <c r="AF3">
+        <v>17.718957938657486</v>
+      </c>
+      <c r="AG3">
+        <v>10.850085137345758</v>
+      </c>
+      <c r="AH3">
+        <v>22.864819097601032</v>
+      </c>
+      <c r="AI3">
+        <v>15.434776421961764</v>
+      </c>
+      <c r="AJ3">
+        <v>24.709831090822505</v>
+      </c>
+      <c r="AK3">
+        <v>15.601707774593393</v>
+      </c>
+      <c r="AL3">
+        <v>22.980617141598469</v>
+      </c>
+      <c r="AM3">
         <v>30.344649674770377</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>13.824821612113388</v>
       </c>
-      <c r="F3">
-        <v>12.231075408474524</v>
-      </c>
-      <c r="G3">
-        <v>26.815611005858258</v>
-      </c>
-      <c r="H3">
-        <v>21.192180945812833</v>
-      </c>
-      <c r="I3">
-        <v>25.942576316654144</v>
-      </c>
-      <c r="J3">
-        <v>16.637329893507566</v>
-      </c>
-      <c r="K3">
-        <v>23.693271911107058</v>
-      </c>
-      <c r="L3">
-        <v>20.620978043142571</v>
-      </c>
-      <c r="M3">
-        <v>33.142034047844952</v>
-      </c>
-      <c r="N3">
-        <v>26.675053598464871</v>
-      </c>
-      <c r="O3">
-        <v>15.606197544315933</v>
-      </c>
-      <c r="P3">
-        <v>23.183680940165786</v>
-      </c>
-      <c r="Q3">
-        <v>21.526775024756528</v>
-      </c>
-      <c r="R3">
-        <v>19.790493933515176</v>
-      </c>
-      <c r="S3">
-        <v>27.965659331337378</v>
-      </c>
-      <c r="T3">
-        <v>30.884527989971058</v>
-      </c>
-      <c r="U3">
-        <v>17.884058800900863</v>
-      </c>
-      <c r="V3">
-        <v>27.579536296967859</v>
-      </c>
-      <c r="W3">
-        <v>15.372000985974731</v>
-      </c>
-      <c r="X3">
-        <v>13.781694091066361</v>
-      </c>
-      <c r="Y3">
-        <v>19.642674339558749</v>
-      </c>
-      <c r="Z3">
-        <v>13.69524237520608</v>
-      </c>
-      <c r="AA3">
-        <v>18.518877157573325</v>
-      </c>
-      <c r="AB3">
-        <v>12.487456483067755</v>
-      </c>
-      <c r="AC3">
-        <v>12.660478239594866</v>
-      </c>
-      <c r="AD3">
-        <v>15.565832382721744</v>
-      </c>
-      <c r="AE3">
-        <v>11.056227540840256</v>
-      </c>
-      <c r="AF3">
-        <v>17.718957938281317</v>
-      </c>
-      <c r="AG3">
-        <v>10.85008513715465</v>
-      </c>
-      <c r="AH3">
-        <v>22.864819096892802</v>
-      </c>
-      <c r="AI3">
-        <v>15.434776421584594</v>
-      </c>
-      <c r="AJ3">
-        <v>24.709831089309073</v>
-      </c>
-      <c r="AK3">
-        <v>15.601707774570022</v>
-      </c>
-      <c r="AL3">
-        <v>22.980617141641019</v>
-      </c>
-      <c r="AM3">
-        <v>30.344649674954656</v>
-      </c>
-      <c r="AN3">
-        <v>13.824821611914684</v>
-      </c>
       <c r="AO3">
-        <v>23.138372040996316</v>
+        <v>23.138372040980755</v>
       </c>
       <c r="AP3">
-        <v>20.396139048357636</v>
+        <v>20.396139048904498</v>
       </c>
       <c r="AQ3">
-        <v>16.947694771626079</v>
+        <v>16.947694771919032</v>
       </c>
       <c r="AR3">
-        <v>25.675116698417167</v>
+        <v>25.675116697495906</v>
       </c>
       <c r="AS3">
-        <v>24.481143095208282</v>
+        <v>24.481143095587772</v>
       </c>
       <c r="AT3">
-        <v>12.301095379194424</v>
+        <v>12.301095379192224</v>
       </c>
       <c r="AU3">
-        <v>29.471666279604069</v>
+        <v>29.471666279751673</v>
       </c>
       <c r="AV3">
-        <v>14.626886326127083</v>
+        <v>14.626886326113024</v>
       </c>
       <c r="AW3">
-        <v>12.078729171961564</v>
+        <v>12.078729171506202</v>
       </c>
       <c r="AX3">
-        <v>20.601940707846378</v>
+        <v>20.601940708038839</v>
       </c>
       <c r="AY3">
-        <v>14.192861538509398</v>
+        <v>14.192861538413561</v>
       </c>
     </row>
   </sheetData>
